--- a/STC12C5A60S2-35I-LQFP48+LED+心形水晶摆台/Doc/PCB/版本号/V0.2/STC12C5A60S2-35I-LQFP48_led流水灯_Project.xlsx
+++ b/STC12C5A60S2-35I-LQFP48+LED+心形水晶摆台/Doc/PCB/版本号/V0.2/STC12C5A60S2-35I-LQFP48_led流水灯_Project.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="126">
   <si>
     <t/>
   </si>
@@ -33,302 +33,431 @@
     <t>D2</t>
   </si>
   <si>
+    <t>F1206</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>IR1</t>
+  </si>
+  <si>
+    <t>LED0603</t>
+  </si>
+  <si>
+    <t>STM-2P</t>
+  </si>
+  <si>
+    <t>STM-4P</t>
+  </si>
+  <si>
+    <t>P1, P4</t>
+  </si>
+  <si>
+    <t>TSSOP-8</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>品牌： HYP(鸿源精密)</t>
+  </si>
+  <si>
+    <t>SW1, SW3, SW4, SW5</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>LQFP-48_L7.0-W7.0</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>SOP-16</t>
+  </si>
+  <si>
+    <t>U2, U3, U4, U5, U6, U7, U8, U9, U10</t>
+  </si>
+  <si>
+    <t>QSOP-24</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>SOP-8</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>SOP-8-EP</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>SOT-23-6</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>SMD3225-4P</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22pF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C19 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1uF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10,C12,C13,C18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R81,R82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R83, R84, R85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R74,R90,R92,R94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R100,R102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED1至LED72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7, C8，C9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4,C5,C11，C20, C21, C22，C27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C3,C6，C15, C16, C17,C25, C26 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R71,R77，R86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R73,R88, R89,R91,R93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1至R70，R79,R95, R96，R101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R80，R87，R103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R0603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发光二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOD-123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：CJ(江苏长电/长晶)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：JK(金科)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖特基二极管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自恢复保险丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红外接收头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMD-4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌:EVERLIGHT(亿光)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌:TECH PUBLIC(台舟)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场效应管(MOSFET)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1TS005F-2500-5001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEY-SMD_4P-L6.0-W6.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DSWB01LHGET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：YE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线路板焊线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻触开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨码开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单片机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SM74HC595D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位寄存器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：STC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：明微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：深圳百为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：FM(富满)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：HL(富海微)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：Zetta(澜智)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：MIXINNO(矽诺微)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌：TAE(雅晶鑫)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池充电芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池保护芯片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频功率放大器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOR FLASH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P0, P2，P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STC12C5A60S2-35I-LQFP48_led流水灯_Project_V0.2_2023-12-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1uF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15uF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7uF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.7k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>JK-NSMD050-13.2V</t>
-  </si>
-  <si>
-    <t>F1206</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>IR1</t>
-  </si>
-  <si>
-    <t>LED0603</t>
-  </si>
-  <si>
-    <t>STM-2P</t>
-  </si>
-  <si>
-    <t>STM-4P</t>
-  </si>
-  <si>
-    <t>P1, P4</t>
-  </si>
-  <si>
-    <t>TSSOP-8</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>品牌： HYP(鸿源精密)</t>
-  </si>
-  <si>
-    <t>SW1, SW3, SW4, SW5</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>LQFP-48_L7.0-W7.0</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOP-16</t>
-  </si>
-  <si>
-    <t>U2, U3, U4, U5, U6, U7, U8, U9, U10</t>
-  </si>
-  <si>
-    <t>QSOP-24</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>SOP-8</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>SOP-8-EP</t>
-  </si>
-  <si>
-    <t>U15</t>
-  </si>
-  <si>
-    <t>SOT-23-6</t>
-  </si>
-  <si>
-    <t>U16</t>
-  </si>
-  <si>
-    <t>SMD3225-4P</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10uF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22pF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">C19 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7uF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1uF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1uF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15uF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10,C12,C13,C18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R81,R82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R83, R84, R85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.3k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.7k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R74,R90,R92,R94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R100,R102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LED1至LED72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C7, C8，C9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4,C5,C11，C20, C21, C22，C27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">C3,C6，C15, C16, C17,C25, C26 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R71,R77，R86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R73,R88, R89,R91,R93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1至R70，R79,R95, R96，R101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R80，R87，R103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0603</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电阻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发光二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOD-123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌：CJ(江苏长电/长晶)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌：JK(金科)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖特基二极管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自恢复保险丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外接收头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMD-4P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRM-H638T/TR2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,31 +465,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IRM-H638T/TR2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌:EVERLIGHT(亿光)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌:TECH PUBLIC(台舟)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场效应管(MOSFET)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1TS005F-2500-5001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KEY-SMD_4P-L6.0-W6.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DSWB01LHGET</t>
+    <t>ZD25Q16BTIGT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIX2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TC4056A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DW01A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,123 +485,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品牌：YE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线路板焊线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻触开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拨码开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单片机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM74HC595D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移位寄存器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌：STC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BY9301-24QS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>品牌：明微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌：深圳百为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZD25Q16BTIGT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIX2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TC4056A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌：FM(富满)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DW01A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌：HL(富海微)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TAXM12M4RFBCCT2T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌：Zetta(澜智)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌：MIXINNO(矽诺微)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌：TAE(雅晶鑫)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晶振</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电池充电芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电池保护芯片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音频功率放大器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOR FLASH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P0, P2，P3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STC12C5A60S2-35I-LQFP48_led流水灯_Project_V0.2_2023-12-17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +497,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +517,28 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -635,7 +662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,6 +684,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -675,26 +723,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -997,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,50 +1054,50 @@
     <col min="5" max="5" width="20.125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="4.375" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="18"/>
+      <c r="A1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -1064,126 +1106,126 @@
       <c r="N2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>75</v>
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="1">
+        <v>57</v>
+      </c>
+      <c r="H3" s="11">
         <v>3</v>
       </c>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="2"/>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="1">
+        <v>58</v>
+      </c>
+      <c r="H4" s="11">
         <v>7</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="11">
         <v>4</v>
       </c>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="2">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="2"/>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="1">
+        <v>44</v>
+      </c>
+      <c r="H6" s="11">
         <v>1</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="1">
+        <v>42</v>
+      </c>
+      <c r="H7" s="11">
         <v>1</v>
       </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
@@ -1192,352 +1234,354 @@
         <v>0</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="11">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="1">
+        <v>47</v>
+      </c>
+      <c r="H9" s="11">
         <v>2</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6">
         <v>100</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="1">
+        <v>65</v>
+      </c>
+      <c r="H10" s="11">
         <v>3</v>
       </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" s="1">
+        <v>64</v>
+      </c>
+      <c r="H11" s="11">
         <v>74</v>
       </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2"/>
       <c r="D12" s="6" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="1">
+        <v>55</v>
+      </c>
+      <c r="H12" s="11">
         <v>2</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="1">
+        <v>48</v>
+      </c>
+      <c r="H13" s="11">
         <v>3</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2"/>
       <c r="D14" s="5" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="1">
+        <v>53</v>
+      </c>
+      <c r="H14" s="11">
         <v>4</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="1">
+        <v>61</v>
+      </c>
+      <c r="H15" s="11">
         <v>3</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="2"/>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="1">
+        <v>54</v>
+      </c>
+      <c r="H16" s="11">
         <v>1</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
+      <c r="A17" s="9">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="1">
+        <v>62</v>
+      </c>
+      <c r="H17" s="11">
         <v>5</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="1">
+        <v>56</v>
+      </c>
+      <c r="H18" s="11">
         <v>72</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
+      <c r="A19" s="9">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="11">
         <v>1</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2"/>
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+      <c r="A21" s="9">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="11">
         <v>1</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="2">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="1">
+      <c r="H22" s="11">
         <v>1</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="2">
+      <c r="A23" s="9">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="H23" s="11">
         <v>4</v>
       </c>
       <c r="I23" s="2"/>
@@ -1547,149 +1591,149 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>96</v>
+        <v>16</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="2">
+      <c r="A25" s="9">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="1">
+      <c r="H25" s="11">
         <v>1</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="2">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="H26" s="11">
         <v>9</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="2">
+      <c r="A27" s="9">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="H27" s="11">
         <v>1</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="2">
+      <c r="A28" s="9">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="H28" s="11">
         <v>1</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="2">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="1">
+        <v>25</v>
+      </c>
+      <c r="H29" s="11">
         <v>1</v>
       </c>
       <c r="I29" s="2"/>
@@ -1699,72 +1743,74 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2"/>
+      <c r="H30" s="11">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="2">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="11">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
       <c r="B32" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="H32" s="11">
         <v>1</v>
       </c>
       <c r="I32" s="2"/>
@@ -1773,21 +1819,21 @@
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="14" t="s">
-        <v>123</v>
+      <c r="B33" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="1">
+        <v>105</v>
+      </c>
+      <c r="H33" s="11">
         <v>3</v>
       </c>
       <c r="I33" s="2"/>
@@ -1796,22 +1842,25 @@
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="24"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="1">
+        <v>10</v>
+      </c>
+      <c r="H34" s="11">
         <v>2</v>
       </c>
       <c r="I34" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E36" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
